--- a/reports/Mozambique_3.1.3_import_top_5_partners_2003-2023.xlsx
+++ b/reports/Mozambique_3.1.3_import_top_5_partners_2003-2023.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="19">
   <si>
-    <t>partnerDesc</t>
+    <t>reporterDesc</t>
   </si>
   <si>
     <t>refYear</t>
@@ -31,7 +31,7 @@
     <t>primaryValue</t>
   </si>
   <si>
-    <t>Areas, nes</t>
+    <t>Australia</t>
   </si>
   <si>
     <t>Bahrain</t>
@@ -40,19 +40,22 @@
     <t>China</t>
   </si>
   <si>
+    <t>Dem. Rep. of the Congo</t>
+  </si>
+  <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>India</t>
   </si>
   <si>
-    <t>Netherlands</t>
+    <t>Malaysia</t>
   </si>
   <si>
     <t>Portugal</t>
   </si>
   <si>
     <t>Rep. of Korea</t>
-  </si>
-  <si>
-    <t>Singapore</t>
   </si>
   <si>
     <t>South Africa</t>
@@ -64,10 +67,10 @@
     <t>United Arab Emirates</t>
   </si>
   <si>
-    <t>United Kingdom</t>
+    <t>Zimbabwe</t>
   </si>
   <si>
-    <t>Import</t>
+    <t>Export</t>
   </si>
 </sst>
 </file>
@@ -425,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA24"/>
+  <dimension ref="A1:AC24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:29">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -453,10 +456,10 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -467,8 +470,10 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:29">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,43 +516,49 @@
         <v>16</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="AC2" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:29">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -555,82 +566,88 @@
         <v>2003</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>0.3106686054038437</v>
+        <v>0.0859493897653088</v>
       </c>
       <c r="E4">
-        <v>0.0007537552309267388</v>
+        <v>2.196702929944169E-05</v>
       </c>
       <c r="F4">
-        <v>0.02317485397966519</v>
+        <v>0.02645037685694889</v>
       </c>
       <c r="G4">
-        <v>0.03881415793477482</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.00525620387196307</v>
+        <v>0.07097066424945186</v>
       </c>
       <c r="I4">
-        <v>0.03551061919312441</v>
+        <v>0.03530917941199653</v>
       </c>
       <c r="J4">
-        <v>0.005001729457732418</v>
+        <v>0.01017165622220827</v>
       </c>
       <c r="K4">
-        <v>0.003184574507194107</v>
+        <v>0.03596756175527141</v>
       </c>
       <c r="L4">
-        <v>0.3352657181527576</v>
+        <v>0.003215821888418324</v>
       </c>
       <c r="M4">
-        <v>0.03474248345071611</v>
+        <v>0.4379612784748015</v>
       </c>
       <c r="N4">
-        <v>0.006032235803824639</v>
+        <v>0.03646490091431298</v>
       </c>
       <c r="O4">
-        <v>0.01135578774854044</v>
+        <v>0.01044770851791015</v>
       </c>
       <c r="P4">
-        <v>544601274</v>
+        <v>0.02408113454270529</v>
       </c>
       <c r="Q4">
-        <v>1321331</v>
+        <v>146317617</v>
       </c>
       <c r="R4">
-        <v>40625460</v>
+        <v>37396</v>
       </c>
       <c r="S4">
-        <v>68041120</v>
+        <v>45028314</v>
       </c>
       <c r="T4">
-        <v>9214112</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>62250025</v>
+        <v>120818292</v>
       </c>
       <c r="V4">
-        <v>8768019</v>
+        <v>60109269</v>
       </c>
       <c r="W4">
-        <v>5582551</v>
+        <v>17315917</v>
       </c>
       <c r="X4">
-        <v>587719950</v>
+        <v>61230079</v>
       </c>
       <c r="Y4">
-        <v>60903485</v>
+        <v>5474517</v>
       </c>
       <c r="Z4">
-        <v>10574494</v>
+        <v>745571909</v>
       </c>
       <c r="AA4">
-        <v>19906667</v>
+        <v>62076734</v>
+      </c>
+      <c r="AB4">
+        <v>17785860</v>
+      </c>
+      <c r="AC4">
+        <v>40994988.22</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:29">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -638,82 +655,88 @@
         <v>2004</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>0.3031765079084366</v>
+        <v>0.1188006537445818</v>
       </c>
       <c r="E5">
-        <v>0.0001572855698794726</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.01979204621437745</v>
+        <v>0.03418426251024215</v>
       </c>
       <c r="G5">
-        <v>0.03131524133222455</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.005321619951094048</v>
+        <v>0.07273639927336276</v>
       </c>
       <c r="I5">
-        <v>0.03469373362355395</v>
+        <v>0.03363159590750563</v>
       </c>
       <c r="J5">
-        <v>0.004984172214927324</v>
+        <v>0.007284761069067499</v>
       </c>
       <c r="K5">
-        <v>0.003060221754389999</v>
+        <v>0.03103151509934922</v>
       </c>
       <c r="L5">
-        <v>0.3277490751864603</v>
+        <v>0.008330199062569637</v>
       </c>
       <c r="M5">
-        <v>0.0238043257968831</v>
+        <v>0.358271772581014</v>
       </c>
       <c r="N5">
-        <v>0.01199505477638722</v>
+        <v>0.03477383689920091</v>
       </c>
       <c r="O5">
-        <v>0.008105467689422512</v>
+        <v>0.01754635010657753</v>
       </c>
       <c r="P5">
-        <v>616859846</v>
+        <v>0.05394328968838058</v>
       </c>
       <c r="Q5">
-        <v>320022</v>
+        <v>261183984</v>
       </c>
       <c r="R5">
-        <v>40270002</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>63715738</v>
+        <v>75154316</v>
       </c>
       <c r="T5">
-        <v>10827665</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>70589807</v>
+        <v>159911431</v>
       </c>
       <c r="V5">
-        <v>10141075</v>
+        <v>73939275</v>
       </c>
       <c r="W5">
-        <v>6226498</v>
+        <v>16015593</v>
       </c>
       <c r="X5">
-        <v>666856563</v>
+        <v>68222981</v>
       </c>
       <c r="Y5">
-        <v>48433610</v>
+        <v>18313995</v>
       </c>
       <c r="Z5">
-        <v>24405808</v>
+        <v>787662744</v>
       </c>
       <c r="AA5">
-        <v>16491837</v>
+        <v>76450499</v>
+      </c>
+      <c r="AB5">
+        <v>38575761</v>
+      </c>
+      <c r="AC5">
+        <v>118594661.45</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:29">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -721,82 +744,88 @@
         <v>2005</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>0.03941940499689638</v>
+        <v>0.1293202691927925</v>
       </c>
       <c r="E6">
-        <v>8.138874769602158E-08</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.02835688778504486</v>
+        <v>0.03676592406581489</v>
       </c>
       <c r="G6">
-        <v>0.04016464189567243</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.1247433854310016</v>
+        <v>0.03882639092351352</v>
       </c>
       <c r="I6">
-        <v>0.03544470743640318</v>
+        <v>0.04502105816246449</v>
       </c>
       <c r="J6">
-        <v>0.005925763153967183</v>
+        <v>0.006118158739890123</v>
       </c>
       <c r="K6">
-        <v>0.009725731115369703</v>
+        <v>0.03215920305950692</v>
       </c>
       <c r="L6">
-        <v>0.4072762534545661</v>
+        <v>0.003491553425303648</v>
       </c>
       <c r="M6">
-        <v>0.02943897485484009</v>
+        <v>0.3986264641951137</v>
       </c>
       <c r="N6">
-        <v>0.01573180295513108</v>
+        <v>0.02525015144586893</v>
       </c>
       <c r="O6">
-        <v>0.008896976073498731</v>
+        <v>0.01587370214420583</v>
       </c>
       <c r="P6">
-        <v>94929626</v>
+        <v>0.02771185337793361</v>
       </c>
       <c r="Q6">
-        <v>196</v>
+        <v>321763796</v>
       </c>
       <c r="R6">
-        <v>68288924</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>96724302</v>
+        <v>91477874</v>
       </c>
       <c r="T6">
-        <v>300406435</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>85357778</v>
+        <v>96604554</v>
       </c>
       <c r="V6">
-        <v>14270395</v>
+        <v>112017603</v>
       </c>
       <c r="W6">
-        <v>23421460</v>
+        <v>15222687</v>
       </c>
       <c r="X6">
-        <v>980800761</v>
+        <v>80015819</v>
       </c>
       <c r="Y6">
-        <v>70894801</v>
+        <v>8687389</v>
       </c>
       <c r="Z6">
-        <v>37885254</v>
+        <v>991828776</v>
       </c>
       <c r="AA6">
-        <v>21425656</v>
+        <v>62825299</v>
+      </c>
+      <c r="AB6">
+        <v>39495608</v>
+      </c>
+      <c r="AC6">
+        <v>68950298.3</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:29">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -804,82 +833,88 @@
         <v>2006</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>0.06300914303392899</v>
+        <v>0.1142905178676965</v>
       </c>
       <c r="E7">
-        <v>0.01742793827352972</v>
+        <v>0.0006653522199710416</v>
       </c>
       <c r="F7">
-        <v>0.02880826861620195</v>
+        <v>0.0463363584753905</v>
       </c>
       <c r="G7">
-        <v>0.04769147938215677</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.1293373655919365</v>
+        <v>0.08961475377421056</v>
       </c>
       <c r="I7">
-        <v>0.03119644329084816</v>
+        <v>0.06335638624161967</v>
       </c>
       <c r="J7">
-        <v>0.004356688854393376</v>
+        <v>0.008620204574586496</v>
       </c>
       <c r="K7">
-        <v>0.0102136781887025</v>
+        <v>0.03334548476121305</v>
       </c>
       <c r="L7">
-        <v>0.3303689620130549</v>
+        <v>0.005384744747289777</v>
       </c>
       <c r="M7">
-        <v>0.03540497438327471</v>
+        <v>0.3291430711868871</v>
       </c>
       <c r="N7">
-        <v>0.03979477309754095</v>
+        <v>0.02344818655127221</v>
       </c>
       <c r="O7">
-        <v>0.007649324891236238</v>
+        <v>0.01684498518986744</v>
       </c>
       <c r="P7">
-        <v>180793807</v>
+        <v>0.03533101086380306</v>
       </c>
       <c r="Q7">
-        <v>50006446</v>
+        <v>315570123</v>
       </c>
       <c r="R7">
-        <v>82660330</v>
+        <v>1837119</v>
       </c>
       <c r="S7">
-        <v>136842428</v>
+        <v>127940363</v>
       </c>
       <c r="T7">
-        <v>371111137</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>89512783</v>
+        <v>247437315</v>
       </c>
       <c r="V7">
-        <v>12500763</v>
+        <v>174934745</v>
       </c>
       <c r="W7">
-        <v>29306378</v>
+        <v>23801441</v>
       </c>
       <c r="X7">
-        <v>947936434</v>
+        <v>92070969</v>
       </c>
       <c r="Y7">
-        <v>101588433</v>
+        <v>14867940</v>
       </c>
       <c r="Z7">
-        <v>114184199</v>
+        <v>908804347</v>
       </c>
       <c r="AA7">
-        <v>21948411</v>
+        <v>64743316</v>
+      </c>
+      <c r="AB7">
+        <v>46511068</v>
+      </c>
+      <c r="AC7">
+        <v>97553249.84100001</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:29">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -887,82 +922,88 @@
         <v>2007</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>0.1258638136228917</v>
+        <v>0.09464202925755312</v>
       </c>
       <c r="E8">
-        <v>0.0002073789010200385</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0338459234754021</v>
+        <v>0.04409282591329747</v>
       </c>
       <c r="G8">
-        <v>0.04322186587146763</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0.1468482389999436</v>
+        <v>0.005449589297298644</v>
       </c>
       <c r="I8">
-        <v>0.03397726817868249</v>
+        <v>0.1059979349971968</v>
       </c>
       <c r="J8">
-        <v>0.006415924536533045</v>
+        <v>0.009542618915293949</v>
       </c>
       <c r="K8">
-        <v>0.002441329767263388</v>
+        <v>0.032668574960887</v>
       </c>
       <c r="L8">
-        <v>0.3183199393955062</v>
+        <v>0.006147844270364649</v>
       </c>
       <c r="M8">
-        <v>0.0265026381412313</v>
+        <v>0.3416255547566484</v>
       </c>
       <c r="N8">
-        <v>0.03263921909806863</v>
+        <v>0.03098970723598936</v>
       </c>
       <c r="O8">
-        <v>0.005489276257219845</v>
+        <v>0.01476185935279772</v>
       </c>
       <c r="P8">
-        <v>383852678</v>
+        <v>0.1153371347115861</v>
       </c>
       <c r="Q8">
-        <v>632453</v>
+        <v>351054436</v>
       </c>
       <c r="R8">
-        <v>103221474</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>131815718</v>
+        <v>163552940</v>
       </c>
       <c r="T8">
-        <v>447849848</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>103622042</v>
+        <v>20214090</v>
       </c>
       <c r="V8">
-        <v>19566941</v>
+        <v>393176748</v>
       </c>
       <c r="W8">
-        <v>7445436</v>
+        <v>35396311</v>
       </c>
       <c r="X8">
-        <v>970795002</v>
+        <v>121177116</v>
       </c>
       <c r="Y8">
-        <v>80826318</v>
+        <v>22804118</v>
       </c>
       <c r="Z8">
-        <v>99541332</v>
+        <v>1267187183</v>
       </c>
       <c r="AA8">
-        <v>16740899</v>
+        <v>114949714</v>
+      </c>
+      <c r="AB8">
+        <v>54755971</v>
+      </c>
+      <c r="AC8">
+        <v>427818518.83</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:29">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -970,82 +1011,88 @@
         <v>2008</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>0.02565134991139466</v>
+        <v>0.0864126809161086</v>
       </c>
       <c r="E9">
-        <v>0.06729877117949239</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.03894792419661506</v>
+        <v>0.06846395415710428</v>
       </c>
       <c r="G9">
-        <v>0.03602035327041349</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.1741604350260224</v>
+        <v>0.0142048639418581</v>
       </c>
       <c r="I9">
-        <v>0.02890004385269079</v>
+        <v>0.09789298134644163</v>
       </c>
       <c r="J9">
-        <v>0.005497828325780981</v>
+        <v>0.01497402636227901</v>
       </c>
       <c r="K9">
-        <v>0.00254540887554516</v>
+        <v>0.03060539168521104</v>
       </c>
       <c r="L9">
-        <v>0.2906512586185756</v>
+        <v>0.008902881165633272</v>
       </c>
       <c r="M9">
-        <v>0.04003093129859754</v>
+        <v>0.3721585332827413</v>
       </c>
       <c r="N9">
-        <v>0.02584295554356696</v>
+        <v>0.04936372661283006</v>
       </c>
       <c r="O9">
-        <v>0.01297282262180125</v>
+        <v>0.01481872294662673</v>
       </c>
       <c r="P9">
-        <v>102804536</v>
+        <v>0.004925391171597886</v>
       </c>
       <c r="Q9">
-        <v>269717538</v>
+        <v>373593921</v>
       </c>
       <c r="R9">
-        <v>156094057</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>144361046</v>
+        <v>295994949</v>
       </c>
       <c r="T9">
-        <v>697993781</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>115824532</v>
+        <v>61412870.901</v>
       </c>
       <c r="V9">
-        <v>22033994</v>
+        <v>423227498</v>
       </c>
       <c r="W9">
-        <v>10201396</v>
+        <v>64738244</v>
       </c>
       <c r="X9">
-        <v>1164861416</v>
+        <v>132318407</v>
       </c>
       <c r="Y9">
-        <v>160434493</v>
+        <v>38490442</v>
       </c>
       <c r="Z9">
-        <v>103572446</v>
+        <v>1608978731</v>
       </c>
       <c r="AA9">
-        <v>51992001</v>
+        <v>213417614</v>
+      </c>
+      <c r="AB9">
+        <v>64066810</v>
+      </c>
+      <c r="AC9">
+        <v>21294284.366</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:29">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1053,82 +1100,88 @@
         <v>2009</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>0.0003789799965200581</v>
+        <v>0.05625511946023376</v>
       </c>
       <c r="E10">
-        <v>0.003954248431395007</v>
+        <v>1.737407975217935E-05</v>
       </c>
       <c r="F10">
-        <v>0.04599141091403047</v>
+        <v>0.07610614649445155</v>
       </c>
       <c r="G10">
-        <v>0.0650028018427657</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0.1296838532790741</v>
+        <v>0.01702260640733144</v>
       </c>
       <c r="I10">
-        <v>0.03771136749370373</v>
+        <v>0.08214500184605353</v>
       </c>
       <c r="J10">
-        <v>0.008532167998922761</v>
+        <v>0.009409089081468102</v>
       </c>
       <c r="K10">
-        <v>0.01785900704718202</v>
+        <v>0.03750968577479676</v>
       </c>
       <c r="L10">
-        <v>0.354332394214934</v>
+        <v>0.007924210954225498</v>
       </c>
       <c r="M10">
-        <v>0.03580904921475339</v>
+        <v>0.3605535918808411</v>
       </c>
       <c r="N10">
-        <v>0.02008865539446618</v>
+        <v>0.04260073031906563</v>
       </c>
       <c r="O10">
-        <v>0.007552181403399589</v>
+        <v>0.01545073007569425</v>
       </c>
       <c r="P10">
-        <v>1426559</v>
+        <v>0.02192766482838837</v>
       </c>
       <c r="Q10">
-        <v>14884608</v>
+        <v>250676376</v>
       </c>
       <c r="R10">
-        <v>173121172</v>
+        <v>77420</v>
       </c>
       <c r="S10">
-        <v>244683975</v>
+        <v>339133810</v>
       </c>
       <c r="T10">
-        <v>488156815</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>141953378</v>
+        <v>75853812.51000001</v>
       </c>
       <c r="V10">
-        <v>32116843</v>
+        <v>366043332</v>
       </c>
       <c r="W10">
-        <v>67224992</v>
+        <v>41927497</v>
       </c>
       <c r="X10">
-        <v>1333780333</v>
+        <v>167145536</v>
       </c>
       <c r="Y10">
-        <v>134792659</v>
+        <v>35310786</v>
       </c>
       <c r="Z10">
-        <v>75617849</v>
+        <v>1606649646</v>
       </c>
       <c r="AA10">
-        <v>28427971</v>
+        <v>189831553</v>
+      </c>
+      <c r="AB10">
+        <v>68849432</v>
+      </c>
+      <c r="AC10">
+        <v>97711063.56299999</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:29">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -1136,82 +1189,88 @@
         <v>2010</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>0.006800858068312939</v>
+        <v>0.06582009137015687</v>
       </c>
       <c r="E11">
-        <v>0.02656172135213739</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.03648522233054954</v>
+        <v>0.09402211671858714</v>
       </c>
       <c r="G11">
-        <v>0.05659007468623148</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0.1803777996723711</v>
+        <v>0.01114947736828916</v>
       </c>
       <c r="I11">
-        <v>0.04325309907715771</v>
+        <v>0.09384392245936526</v>
       </c>
       <c r="J11">
-        <v>0.004176255477029807</v>
+        <v>0.01171040926686973</v>
       </c>
       <c r="K11">
-        <v>0.002207978466185792</v>
+        <v>0.03744416287757286</v>
       </c>
       <c r="L11">
-        <v>0.3441969734526414</v>
+        <v>0.006541544954215392</v>
       </c>
       <c r="M11">
-        <v>0.02086438228906116</v>
+        <v>0.3561105131508988</v>
       </c>
       <c r="N11">
-        <v>0.01336001396837098</v>
+        <v>0.0424318796285934</v>
       </c>
       <c r="O11">
-        <v>0.01611018451175176</v>
+        <v>0.01342976806249216</v>
       </c>
       <c r="P11">
-        <v>24239819</v>
+        <v>0.01741190815022529</v>
       </c>
       <c r="Q11">
-        <v>94672071</v>
+        <v>347498062</v>
       </c>
       <c r="R11">
-        <v>130041706</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>201700014</v>
+        <v>496391036</v>
       </c>
       <c r="T11">
-        <v>642907876</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>154163972</v>
+        <v>58863816.46</v>
       </c>
       <c r="V11">
-        <v>14885133</v>
+        <v>495450257</v>
       </c>
       <c r="W11">
-        <v>7869742</v>
+        <v>61825264</v>
       </c>
       <c r="X11">
-        <v>1226797009</v>
+        <v>197686964</v>
       </c>
       <c r="Y11">
-        <v>74365447</v>
+        <v>34536175</v>
       </c>
       <c r="Z11">
-        <v>47618156</v>
+        <v>1880090267.299</v>
       </c>
       <c r="AA11">
-        <v>57420395</v>
+        <v>224019682</v>
+      </c>
+      <c r="AB11">
+        <v>70902642</v>
+      </c>
+      <c r="AC11">
+        <v>91926404.41500001</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:29">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1219,82 +1278,88 @@
         <v>2011</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.05807566684479695</v>
       </c>
       <c r="E12">
-        <v>0.01719078153280702</v>
+        <v>0.004302465551767777</v>
       </c>
       <c r="F12">
-        <v>0.05928749262367525</v>
+        <v>0.09702630418771241</v>
       </c>
       <c r="G12">
-        <v>0.04765902690080812</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0.1072270617115103</v>
+        <v>0.01205001356455977</v>
       </c>
       <c r="I12">
-        <v>0.0357709526080353</v>
+        <v>0.07905990212326167</v>
       </c>
       <c r="J12">
-        <v>0.004127887273106154</v>
+        <v>0.005029299784518041</v>
       </c>
       <c r="K12">
-        <v>0.005876637242776197</v>
+        <v>0.04182417059550596</v>
       </c>
       <c r="L12">
-        <v>0.3364254294602917</v>
+        <v>0.005679021852656176</v>
       </c>
       <c r="M12">
-        <v>0.04635876381916083</v>
+        <v>0.3338514382285037</v>
       </c>
       <c r="N12">
-        <v>0.06360711279905139</v>
+        <v>0.06363268915419837</v>
       </c>
       <c r="O12">
-        <v>0.0353357871127261</v>
+        <v>0.01198227570157464</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.0180946137395772</v>
       </c>
       <c r="Q12">
-        <v>108399000</v>
+        <v>419136989</v>
       </c>
       <c r="R12">
-        <v>373846000</v>
+        <v>31051257</v>
       </c>
       <c r="S12">
-        <v>300521000</v>
+        <v>700247026</v>
       </c>
       <c r="T12">
-        <v>676136000</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>225559000</v>
+        <v>86965964.874</v>
       </c>
       <c r="V12">
-        <v>26029000</v>
+        <v>570581986</v>
       </c>
       <c r="W12">
-        <v>37056000</v>
+        <v>36296881</v>
       </c>
       <c r="X12">
-        <v>2121380000</v>
+        <v>301848569</v>
       </c>
       <c r="Y12">
-        <v>292322000</v>
+        <v>40985980</v>
       </c>
       <c r="Z12">
-        <v>401084000</v>
+        <v>2409434005.577</v>
       </c>
       <c r="AA12">
-        <v>222815000</v>
+        <v>459242488</v>
+      </c>
+      <c r="AB12">
+        <v>86477095</v>
+      </c>
+      <c r="AC12">
+        <v>130590354.48</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:29">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -1302,82 +1367,88 @@
         <v>2012</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13">
-        <v>0.0002351401483760902</v>
+        <v>0.04320688332088482</v>
       </c>
       <c r="E13">
-        <v>0.06305459428554865</v>
+        <v>0.0001507714824459336</v>
       </c>
       <c r="F13">
-        <v>0.05669697133707964</v>
+        <v>0.1192720306668619</v>
       </c>
       <c r="G13">
-        <v>0.03252586369993152</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0.09274805728761407</v>
+        <v>0.01802485401829901</v>
       </c>
       <c r="I13">
-        <v>0.0492222226375302</v>
+        <v>0.1126147195122101</v>
       </c>
       <c r="J13">
-        <v>0.002282096729286724</v>
+        <v>0.01206864341553488</v>
       </c>
       <c r="K13">
-        <v>0.007046042189899911</v>
+        <v>0.04680408872893467</v>
       </c>
       <c r="L13">
-        <v>0.314138902751706</v>
+        <v>0.005580855278800051</v>
       </c>
       <c r="M13">
-        <v>0.04111712136722407</v>
+        <v>0.2982502090065551</v>
       </c>
       <c r="N13">
-        <v>0.07350645254776576</v>
+        <v>0.04457189275270187</v>
       </c>
       <c r="O13">
-        <v>0.06044320972140444</v>
+        <v>0.02044067811662951</v>
       </c>
       <c r="P13">
-        <v>1452510</v>
+        <v>0.0358880130674375</v>
       </c>
       <c r="Q13">
-        <v>389501450</v>
+        <v>340840984</v>
       </c>
       <c r="R13">
-        <v>350229080</v>
+        <v>1189373</v>
       </c>
       <c r="S13">
-        <v>200919080</v>
+        <v>940887034</v>
       </c>
       <c r="T13">
-        <v>572924197</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>304055990</v>
+        <v>142190514.748</v>
       </c>
       <c r="V13">
-        <v>14096990</v>
+        <v>888370298</v>
       </c>
       <c r="W13">
-        <v>43524880</v>
+        <v>95204467</v>
       </c>
       <c r="X13">
-        <v>1940501870</v>
+        <v>369217829</v>
       </c>
       <c r="Y13">
-        <v>253989080</v>
+        <v>44025027</v>
       </c>
       <c r="Z13">
-        <v>454064770</v>
+        <v>2352770829.616</v>
       </c>
       <c r="AA13">
-        <v>373370380</v>
+        <v>351608971</v>
+      </c>
+      <c r="AB13">
+        <v>161247938</v>
+      </c>
+      <c r="AC13">
+        <v>283105485.69</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:29">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -1385,82 +1456,88 @@
         <v>2013</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>0.0001157077898698952</v>
+        <v>0.006475753270340518</v>
       </c>
       <c r="E14">
-        <v>0.0555966914712106</v>
+        <v>0.0003501386963928182</v>
       </c>
       <c r="F14">
-        <v>0.06377972103902348</v>
+        <v>0.1173470679220186</v>
       </c>
       <c r="G14">
-        <v>0.03268645698998785</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0.04252341433001605</v>
+        <v>0.007270394978193213</v>
       </c>
       <c r="I14">
-        <v>0.04785675119790526</v>
+        <v>0.1580752585694996</v>
       </c>
       <c r="J14">
-        <v>0.003956157810157558</v>
+        <v>0.005340388697199538</v>
       </c>
       <c r="K14">
-        <v>0.06230393009040117</v>
+        <v>0.04257650681394733</v>
       </c>
       <c r="L14">
-        <v>0.3266498736526682</v>
+        <v>0.009038607323290935</v>
       </c>
       <c r="M14">
-        <v>0.02026668255363188</v>
+        <v>0.2768446200881447</v>
       </c>
       <c r="N14">
-        <v>0.08537186709553987</v>
+        <v>0.02964921042192055</v>
       </c>
       <c r="O14">
-        <v>0.02430795151075163</v>
+        <v>0.008648020833918593</v>
       </c>
       <c r="P14">
-        <v>1168550</v>
+        <v>0.03615916499761326</v>
       </c>
       <c r="Q14">
-        <v>561479170</v>
+        <v>66182541</v>
       </c>
       <c r="R14">
-        <v>644120790</v>
+        <v>3578436</v>
       </c>
       <c r="S14">
-        <v>330105340</v>
+        <v>1199293242</v>
       </c>
       <c r="T14">
-        <v>429450220</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>483312374</v>
+        <v>74303821.292</v>
       </c>
       <c r="V14">
-        <v>39953820</v>
+        <v>1615537505</v>
       </c>
       <c r="W14">
-        <v>629216560</v>
+        <v>54579055</v>
       </c>
       <c r="X14">
-        <v>3298885151</v>
+        <v>435134152</v>
       </c>
       <c r="Y14">
-        <v>204676210</v>
+        <v>92375045</v>
       </c>
       <c r="Z14">
-        <v>862183051</v>
+        <v>2829366662.799</v>
       </c>
       <c r="AA14">
-        <v>245489580</v>
+        <v>303016499</v>
+      </c>
+      <c r="AB14">
+        <v>88383230.41599999</v>
+      </c>
+      <c r="AC14">
+        <v>369548579.15</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:29">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -1468,82 +1545,88 @@
         <v>2014</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.02962888331205112</v>
       </c>
       <c r="E15">
-        <v>0.09267261790194897</v>
+        <v>0.04400260421959315</v>
       </c>
       <c r="F15">
-        <v>0.08006574339220258</v>
+        <v>0.161322372069095</v>
       </c>
       <c r="G15">
-        <v>0.03752596401658059</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>0.06854440123868842</v>
+        <v>0.0058050064392042</v>
       </c>
       <c r="I15">
-        <v>0.05215505513781489</v>
+        <v>0.1604313768785484</v>
       </c>
       <c r="J15">
-        <v>0.004998068037683136</v>
+        <v>0.01516131207981554</v>
       </c>
       <c r="K15">
-        <v>0.01257399282631142</v>
+        <v>0.0346065100790012</v>
       </c>
       <c r="L15">
-        <v>0.3307640681827548</v>
+        <v>0.008300368387689515</v>
       </c>
       <c r="M15">
-        <v>0.01814184179607822</v>
+        <v>0.2454786787008068</v>
       </c>
       <c r="N15">
-        <v>0.05473839520030301</v>
+        <v>0.03074163348781182</v>
       </c>
       <c r="O15">
-        <v>0.0135412655212976</v>
+        <v>0.008729281064506765</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.04731481968184665</v>
       </c>
       <c r="Q15">
-        <v>810243580</v>
+        <v>361583832</v>
       </c>
       <c r="R15">
-        <v>700020740</v>
+        <v>536997297</v>
       </c>
       <c r="S15">
-        <v>328092290</v>
+        <v>1968739789</v>
       </c>
       <c r="T15">
-        <v>599288790</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>455995520</v>
+        <v>70842915.373</v>
       </c>
       <c r="V15">
-        <v>43698480</v>
+        <v>1957866296</v>
       </c>
       <c r="W15">
-        <v>109935353</v>
+        <v>185025040</v>
       </c>
       <c r="X15">
-        <v>2891894810</v>
+        <v>422329603</v>
       </c>
       <c r="Y15">
-        <v>158615470</v>
+        <v>101295718</v>
       </c>
       <c r="Z15">
-        <v>478581854</v>
+        <v>2995763302.454</v>
       </c>
       <c r="AA15">
-        <v>118392290</v>
+        <v>375163570</v>
+      </c>
+      <c r="AB15">
+        <v>106530066.107</v>
+      </c>
+      <c r="AC15">
+        <v>577418785.27</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:29">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -1551,82 +1634,88 @@
         <v>2015</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.03590279672272603</v>
       </c>
       <c r="E16">
-        <v>0.05198283568096825</v>
+        <v>1.612422143448423E-05</v>
       </c>
       <c r="F16">
-        <v>0.1247984730214989</v>
+        <v>0.2019535187047631</v>
       </c>
       <c r="G16">
-        <v>0.0400220735850841</v>
+        <v>6.087962408775871E-05</v>
       </c>
       <c r="H16">
-        <v>0.07267753912668191</v>
+        <v>0.007473025324365818</v>
       </c>
       <c r="I16">
-        <v>0.05773183617791021</v>
+        <v>0.1538818864603632</v>
       </c>
       <c r="J16">
-        <v>0.004380640573443602</v>
+        <v>0.0142648415418699</v>
       </c>
       <c r="K16">
-        <v>0.01894044495613932</v>
+        <v>0.04103757022565508</v>
       </c>
       <c r="L16">
-        <v>0.3010044412619491</v>
+        <v>0.007045805743065026</v>
       </c>
       <c r="M16">
-        <v>0.0246620738651752</v>
+        <v>0.2411950503484937</v>
       </c>
       <c r="N16">
-        <v>0.04320484369654565</v>
+        <v>0.02753162196206391</v>
       </c>
       <c r="O16">
-        <v>0.01209212618756153</v>
+        <v>0.008295526411653783</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.04267419204471985</v>
       </c>
       <c r="Q16">
-        <v>411060594.73</v>
+        <v>344536996</v>
       </c>
       <c r="R16">
-        <v>986859102.04</v>
+        <v>154734.208</v>
       </c>
       <c r="S16">
-        <v>316479413.92</v>
+        <v>1938023358</v>
       </c>
       <c r="T16">
-        <v>574706478.89</v>
+        <v>584224.203</v>
       </c>
       <c r="U16">
-        <v>456521515.29</v>
+        <v>71714014.82099999</v>
       </c>
       <c r="V16">
-        <v>34640448.06</v>
+        <v>1476709553</v>
       </c>
       <c r="W16">
-        <v>149773871.82</v>
+        <v>136890886</v>
       </c>
       <c r="X16">
-        <v>2380229224.14</v>
+        <v>393812250.279</v>
       </c>
       <c r="Y16">
-        <v>195018348.22</v>
+        <v>67614252</v>
       </c>
       <c r="Z16">
-        <v>341647555.63</v>
+        <v>2314600133.77</v>
       </c>
       <c r="AA16">
-        <v>95619958.34</v>
+        <v>264203995</v>
+      </c>
+      <c r="AB16">
+        <v>79607050.45299999</v>
+      </c>
+      <c r="AC16">
+        <v>409517900.44</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:29">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -1634,82 +1723,88 @@
         <v>2016</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.03736966257061392</v>
       </c>
       <c r="E17">
-        <v>0.00301234289509163</v>
+        <v>0.0001297859451195559</v>
       </c>
       <c r="F17">
-        <v>0.07891798585239691</v>
+        <v>0.1770038563678887</v>
       </c>
       <c r="G17">
-        <v>0.06146369602985311</v>
+        <v>7.318710167225027E-06</v>
       </c>
       <c r="H17">
-        <v>0.02378065878206469</v>
+        <v>0.008034504239615487</v>
       </c>
       <c r="I17">
-        <v>0.05769453410210015</v>
+        <v>0.1182339321706133</v>
       </c>
       <c r="J17">
-        <v>0.004694499256077866</v>
+        <v>0.0212583155382053</v>
       </c>
       <c r="K17">
-        <v>0.08051413333220317</v>
+        <v>0.03213945718733257</v>
       </c>
       <c r="L17">
-        <v>0.2997741043601767</v>
+        <v>0.006138641666140368</v>
       </c>
       <c r="M17">
-        <v>0.02284931248834738</v>
+        <v>0.3075810425916985</v>
       </c>
       <c r="N17">
-        <v>0.07162819118975243</v>
+        <v>0.02021433933837256</v>
       </c>
       <c r="O17">
-        <v>0.02110844410316104</v>
+        <v>0.006279907154983377</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.03629862473429619</v>
       </c>
       <c r="Q17">
-        <v>15951297.21</v>
+        <v>276267220</v>
       </c>
       <c r="R17">
-        <v>417895402.81</v>
+        <v>959484.2389999999</v>
       </c>
       <c r="S17">
-        <v>325469482.44</v>
+        <v>1308557797</v>
       </c>
       <c r="T17">
-        <v>125926021.47</v>
+        <v>54105.913</v>
       </c>
       <c r="U17">
-        <v>305510591.89</v>
+        <v>59397650.331</v>
       </c>
       <c r="V17">
-        <v>24858840.94</v>
+        <v>874082277</v>
       </c>
       <c r="W17">
-        <v>426347502.63</v>
+        <v>157158918</v>
       </c>
       <c r="X17">
-        <v>1587397584.22</v>
+        <v>237601248.678</v>
       </c>
       <c r="Y17">
-        <v>120994251.73</v>
+        <v>45381878</v>
       </c>
       <c r="Z17">
-        <v>379293661.47</v>
+        <v>2273891539.72</v>
       </c>
       <c r="AA17">
-        <v>111775809.48</v>
+        <v>149440989</v>
+      </c>
+      <c r="AB17">
+        <v>46426228.449</v>
+      </c>
+      <c r="AC17">
+        <v>268349229.17</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:29">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -1717,82 +1812,88 @@
         <v>2017</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.04968443222057552</v>
       </c>
       <c r="E18">
-        <v>0.002553733320319037</v>
+        <v>7.105379536871503E-05</v>
       </c>
       <c r="F18">
-        <v>0.08593004743511598</v>
+        <v>0.1511025922533051</v>
       </c>
       <c r="G18">
-        <v>0.07858681370991499</v>
+        <v>6.69052642322938E-05</v>
       </c>
       <c r="H18">
-        <v>0.08549820930645466</v>
+        <v>0.006904544957817353</v>
       </c>
       <c r="I18">
-        <v>0.04220650675576969</v>
+        <v>0.1217229943862836</v>
       </c>
       <c r="J18">
-        <v>0.003316075402605481</v>
+        <v>0.02234790885973419</v>
       </c>
       <c r="K18">
-        <v>0.01774423073905686</v>
+        <v>0.02354941118399523</v>
       </c>
       <c r="L18">
-        <v>0.2899841294432101</v>
+        <v>0.006616752999333112</v>
       </c>
       <c r="M18">
-        <v>0.01946365425625213</v>
+        <v>0.3277728557289145</v>
       </c>
       <c r="N18">
-        <v>0.09521800905469976</v>
+        <v>0.02049436890351814</v>
       </c>
       <c r="O18">
-        <v>0.006444398245073641</v>
+        <v>0.04340473182818965</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.04219539563413196</v>
       </c>
       <c r="Q18">
-        <v>14661891.772</v>
+        <v>429674559.554</v>
       </c>
       <c r="R18">
-        <v>493354981.678</v>
+        <v>614478.356</v>
       </c>
       <c r="S18">
-        <v>451194863.674</v>
+        <v>1306746135</v>
       </c>
       <c r="T18">
-        <v>490875645.306</v>
+        <v>578601.559</v>
       </c>
       <c r="U18">
-        <v>242322575.033</v>
+        <v>59711003.65</v>
       </c>
       <c r="V18">
-        <v>19038768.956</v>
+        <v>1052669249.964</v>
       </c>
       <c r="W18">
-        <v>101875943.194</v>
+        <v>193266330.46</v>
       </c>
       <c r="X18">
-        <v>1664902081.852</v>
+        <v>203657009.369</v>
       </c>
       <c r="Y18">
-        <v>111747765.486</v>
+        <v>57222158</v>
       </c>
       <c r="Z18">
-        <v>546680474.581</v>
+        <v>2834603338</v>
       </c>
       <c r="AA18">
-        <v>36999583.65</v>
+        <v>177236783</v>
+      </c>
+      <c r="AB18">
+        <v>375367256.851</v>
+      </c>
+      <c r="AC18">
+        <v>364908830.07</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:29">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -1800,82 +1901,88 @@
         <v>2018</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D19">
-        <v>0.006382818740474494</v>
+        <v>0.05265677856055099</v>
       </c>
       <c r="E19">
-        <v>0.006573614694642212</v>
+        <v>4.797033215370069E-05</v>
       </c>
       <c r="F19">
-        <v>0.1227395879950567</v>
+        <v>0.1870002235565339</v>
       </c>
       <c r="G19">
-        <v>0.06510270947769844</v>
+        <v>0.01058089993358057</v>
       </c>
       <c r="H19">
-        <v>0.06765776185463598</v>
+        <v>0.006182198257879322</v>
       </c>
       <c r="I19">
-        <v>0.02996664626550668</v>
+        <v>0.08133706365305209</v>
       </c>
       <c r="J19">
-        <v>0.003205490432778001</v>
+        <v>0.01706642241287779</v>
       </c>
       <c r="K19">
-        <v>0.03652376392381922</v>
+        <v>0.02373028427536978</v>
       </c>
       <c r="L19">
-        <v>0.2836279190216048</v>
+        <v>0.00638251554950659</v>
       </c>
       <c r="M19">
-        <v>0.02850982715698839</v>
+        <v>0.3195361998174228</v>
       </c>
       <c r="N19">
-        <v>0.06919164888316141</v>
+        <v>0.01852671583198926</v>
       </c>
       <c r="O19">
-        <v>0.009514036025775989</v>
+        <v>0.02944846140882062</v>
       </c>
       <c r="P19">
-        <v>49337305.467</v>
+        <v>0.03939335201848033</v>
       </c>
       <c r="Q19">
-        <v>50812101.894</v>
+        <v>524252786.446</v>
       </c>
       <c r="R19">
-        <v>948740798.075</v>
+        <v>477594.357</v>
       </c>
       <c r="S19">
-        <v>503224734.217</v>
+        <v>1861780970</v>
       </c>
       <c r="T19">
-        <v>522974535.164</v>
+        <v>105343821.345</v>
       </c>
       <c r="U19">
-        <v>231633333.287</v>
+        <v>61550188.82</v>
       </c>
       <c r="V19">
-        <v>24777495.192</v>
+        <v>809794739.198</v>
       </c>
       <c r="W19">
-        <v>282317917.958</v>
+        <v>169913917.053</v>
       </c>
       <c r="X19">
-        <v>2192360123.123</v>
+        <v>236259566.092</v>
       </c>
       <c r="Y19">
-        <v>220372551.446</v>
+        <v>63544555</v>
       </c>
       <c r="Z19">
-        <v>534831029.286</v>
+        <v>3181313929.64</v>
       </c>
       <c r="AA19">
-        <v>73540691.145</v>
+        <v>184452651</v>
+      </c>
+      <c r="AB19">
+        <v>293189943.862</v>
+      </c>
+      <c r="AC19">
+        <v>392201633.44</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:29">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -1883,82 +1990,88 @@
         <v>2019</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D20">
-        <v>8.404429842419555E-05</v>
+        <v>0.02856622329977762</v>
       </c>
       <c r="E20">
-        <v>0.007209536641704458</v>
+        <v>0.0008249116727089195</v>
       </c>
       <c r="F20">
-        <v>0.1122447603703065</v>
+        <v>0.1589032021856244</v>
       </c>
       <c r="G20">
-        <v>0.06169308963191795</v>
+        <v>0.03940302855885166</v>
       </c>
       <c r="H20">
-        <v>0.01935445060810559</v>
+        <v>0.005756823907716915</v>
       </c>
       <c r="I20">
-        <v>0.03523621473782707</v>
+        <v>0.1733202385355972</v>
       </c>
       <c r="J20">
-        <v>0.003396330964953072</v>
+        <v>0.01734890772976387</v>
       </c>
       <c r="K20">
-        <v>0.0676147554459316</v>
+        <v>0.01846357356227637</v>
       </c>
       <c r="L20">
-        <v>0.2778735030355066</v>
+        <v>0.005011777241113272</v>
       </c>
       <c r="M20">
-        <v>0.0270220884358152</v>
+        <v>0.2964082831454828</v>
       </c>
       <c r="N20">
-        <v>0.08568774385449933</v>
+        <v>0.01588780155137942</v>
       </c>
       <c r="O20">
-        <v>0.01289675965836253</v>
+        <v>0.0212241415708314</v>
       </c>
       <c r="P20">
-        <v>647050.7830000001</v>
+        <v>0.02876061821249285</v>
       </c>
       <c r="Q20">
-        <v>55505684.699</v>
+        <v>351937235.53</v>
       </c>
       <c r="R20">
-        <v>864164035.479</v>
+        <v>10162951.21</v>
       </c>
       <c r="S20">
-        <v>474970494.138</v>
+        <v>1957695041</v>
       </c>
       <c r="T20">
-        <v>149008471.191</v>
+        <v>485447193.946</v>
       </c>
       <c r="U20">
-        <v>271280988.283</v>
+        <v>70924345.52</v>
       </c>
       <c r="V20">
-        <v>26148098.698</v>
+        <v>2135313617.467</v>
       </c>
       <c r="W20">
-        <v>520560957.423</v>
+        <v>213739371.908</v>
       </c>
       <c r="X20">
-        <v>2139327367.653</v>
+        <v>227472108.207</v>
       </c>
       <c r="Y20">
-        <v>208041042.742</v>
+        <v>61745335</v>
       </c>
       <c r="Z20">
-        <v>659703546.75</v>
+        <v>3651764206.409</v>
       </c>
       <c r="AA20">
-        <v>99291190.37899999</v>
+        <v>195738474</v>
+      </c>
+      <c r="AB20">
+        <v>261482437.932</v>
+      </c>
+      <c r="AC20">
+        <v>354332190.14</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:29">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -1966,82 +2079,88 @@
         <v>2020</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D21">
-        <v>3.180085873455292E-05</v>
+        <v>0.02650556987003858</v>
       </c>
       <c r="E21">
-        <v>0.001753292261095681</v>
+        <v>0.0009562738469542279</v>
       </c>
       <c r="F21">
-        <v>0.1078987620139097</v>
+        <v>0.1819220592146581</v>
       </c>
       <c r="G21">
-        <v>0.08945879943342361</v>
+        <v>0.06194954938984341</v>
       </c>
       <c r="H21">
-        <v>0.008749009591918308</v>
+        <v>0.006296847712729092</v>
       </c>
       <c r="I21">
-        <v>0.03535794102655598</v>
+        <v>0.1313820953680067</v>
       </c>
       <c r="J21">
-        <v>0.003543078216715682</v>
+        <v>0.02222199693259454</v>
       </c>
       <c r="K21">
-        <v>0.05570750310970241</v>
+        <v>0.02076239974398344</v>
       </c>
       <c r="L21">
-        <v>0.3079399451396326</v>
+        <v>0.006601133112158648</v>
       </c>
       <c r="M21">
-        <v>0.0236595815176652</v>
+        <v>0.2806748631738909</v>
       </c>
       <c r="N21">
-        <v>0.06542941436760601</v>
+        <v>0.01173456562807686</v>
       </c>
       <c r="O21">
-        <v>0.02642259527188907</v>
+        <v>0.02898403362681046</v>
       </c>
       <c r="P21">
-        <v>207153.536</v>
+        <v>0.03706683531169623</v>
       </c>
       <c r="Q21">
-        <v>11421096.976</v>
+        <v>291404775.093</v>
       </c>
       <c r="R21">
-        <v>702861839.92</v>
+        <v>10513366.31</v>
       </c>
       <c r="S21">
-        <v>582742333.584</v>
+        <v>2000068552</v>
       </c>
       <c r="T21">
-        <v>56991802.913</v>
+        <v>681079282.414</v>
       </c>
       <c r="U21">
-        <v>230324676.779</v>
+        <v>69228147.16</v>
       </c>
       <c r="V21">
-        <v>23079917.025</v>
+        <v>1444427346.391</v>
       </c>
       <c r="W21">
-        <v>362883478.941</v>
+        <v>244310763.738</v>
       </c>
       <c r="X21">
-        <v>2005947356.447</v>
+        <v>228263812.378</v>
       </c>
       <c r="Y21">
-        <v>154120554.183</v>
+        <v>72573490</v>
       </c>
       <c r="Z21">
-        <v>426212847.2</v>
+        <v>3085766341.885</v>
       </c>
       <c r="AA21">
-        <v>172119064.034</v>
+        <v>129010939</v>
+      </c>
+      <c r="AB21">
+        <v>318653243.138</v>
+      </c>
+      <c r="AC21">
+        <v>407516339.41</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:29">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -2049,82 +2168,88 @@
         <v>2021</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D22">
-        <v>0.001248629455443536</v>
+        <v>0.007629068796291537</v>
       </c>
       <c r="E22">
-        <v>0.006490726985408818</v>
+        <v>0.0002166246185277917</v>
       </c>
       <c r="F22">
-        <v>0.1079597656246358</v>
+        <v>0.1641408765445365</v>
       </c>
       <c r="G22">
-        <v>0.08570390402667838</v>
+        <v>0.06280919866667349</v>
       </c>
       <c r="H22">
-        <v>0.006123944621906488</v>
+        <v>0.004085387659988512</v>
       </c>
       <c r="I22">
-        <v>0.03339330079992019</v>
+        <v>0.1065433595380963</v>
       </c>
       <c r="J22">
-        <v>0.005134450320850026</v>
+        <v>0.0279897928786667</v>
       </c>
       <c r="K22">
-        <v>0.06794380640605914</v>
+        <v>0.01336145191762511</v>
       </c>
       <c r="L22">
-        <v>0.2634335068315404</v>
+        <v>0.1505009087874576</v>
       </c>
       <c r="M22">
-        <v>0.02661534601181878</v>
+        <v>0.2511363249862882</v>
       </c>
       <c r="N22">
-        <v>0.08440894456871824</v>
+        <v>0.01102043846551905</v>
       </c>
       <c r="O22">
-        <v>0.01600392317468825</v>
+        <v>0.02413332195919727</v>
       </c>
       <c r="P22">
-        <v>10935601.716</v>
+        <v>0.0295210776007456</v>
       </c>
       <c r="Q22">
-        <v>56846332.473</v>
+        <v>131447012.715</v>
       </c>
       <c r="R22">
-        <v>945520701.179</v>
+        <v>3732389.856</v>
       </c>
       <c r="S22">
-        <v>750601994.7359999</v>
+        <v>2828107658</v>
       </c>
       <c r="T22">
-        <v>53634021.706</v>
+        <v>1082187322.753</v>
       </c>
       <c r="U22">
-        <v>292461335.057</v>
+        <v>70390242.64</v>
       </c>
       <c r="V22">
-        <v>44967947.452</v>
+        <v>1835716351.478</v>
       </c>
       <c r="W22">
-        <v>595057567.068</v>
+        <v>482257370.939</v>
       </c>
       <c r="X22">
-        <v>2307172793.978</v>
+        <v>230214589.356</v>
       </c>
       <c r="Y22">
-        <v>233099437.347</v>
+        <v>2593094308</v>
       </c>
       <c r="Z22">
-        <v>739260630.964</v>
+        <v>4327018222.685</v>
       </c>
       <c r="AA22">
-        <v>140163704.267</v>
+        <v>189879493</v>
+      </c>
+      <c r="AB22">
+        <v>415811308.448</v>
+      </c>
+      <c r="AC22">
+        <v>508641036.85</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:29">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -2132,82 +2257,88 @@
         <v>2022</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D23">
-        <v>3.306685154961804E-05</v>
+        <v>0.03010382395740963</v>
       </c>
       <c r="E23">
-        <v>0.005079666198623934</v>
+        <v>1.908321295040539E-05</v>
       </c>
       <c r="F23">
-        <v>0.07231174466322096</v>
+        <v>0.1814475114468563</v>
       </c>
       <c r="G23">
-        <v>0.05740864177901828</v>
+        <v>0.05834592268107538</v>
       </c>
       <c r="H23">
-        <v>0.004557493778676985</v>
+        <v>0.004352087138815625</v>
       </c>
       <c r="I23">
-        <v>0.01889865592458812</v>
+        <v>0.126812868240238</v>
       </c>
       <c r="J23">
-        <v>0.3200416933314966</v>
+        <v>0.03317713305736569</v>
       </c>
       <c r="K23">
-        <v>0.04630283746943258</v>
+        <v>0.01292028258833129</v>
       </c>
       <c r="L23">
-        <v>0.1560859652325855</v>
+        <v>0.007041854421936566</v>
       </c>
       <c r="M23">
-        <v>0.01492493304882317</v>
+        <v>0.3213705364309226</v>
       </c>
       <c r="N23">
-        <v>0.09991858207152758</v>
+        <v>0.01268045272322117</v>
       </c>
       <c r="O23">
-        <v>0.003569834468418423</v>
+        <v>0.02730632910300474</v>
       </c>
       <c r="P23">
-        <v>485123.279</v>
+        <v>0.01049140696970515</v>
       </c>
       <c r="Q23">
-        <v>74523705.978</v>
+        <v>546193933.892</v>
       </c>
       <c r="R23">
-        <v>1060884512.352</v>
+        <v>346239.573</v>
       </c>
       <c r="S23">
-        <v>842241315.324</v>
+        <v>3292124290</v>
       </c>
       <c r="T23">
-        <v>66862922.302</v>
+        <v>1058609334.177</v>
       </c>
       <c r="U23">
-        <v>277261895.257</v>
+        <v>78962845.33</v>
       </c>
       <c r="V23">
-        <v>4695326842.736</v>
+        <v>2300851196.521</v>
       </c>
       <c r="W23">
-        <v>679308228.256</v>
+        <v>601955048.817</v>
       </c>
       <c r="X23">
-        <v>2289934835.371</v>
+        <v>234421380.616</v>
       </c>
       <c r="Y23">
-        <v>218963467.043</v>
+        <v>127765103</v>
       </c>
       <c r="Z23">
-        <v>1465904006.459</v>
+        <v>5830841881.7</v>
       </c>
       <c r="AA23">
-        <v>52372987.498</v>
+        <v>230069986</v>
+      </c>
+      <c r="AB23">
+        <v>495437102.41</v>
+      </c>
+      <c r="AC23">
+        <v>190352655.96</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:29">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -2215,85 +2346,91 @@
         <v>2023</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D24">
-        <v>4.112227952587101E-05</v>
+        <v>0.02140595836316398</v>
       </c>
       <c r="E24">
-        <v>0.03398483905780237</v>
+        <v>0.00026472408385311</v>
       </c>
       <c r="F24">
-        <v>0.1537587794828165</v>
+        <v>0.1987093871874858</v>
       </c>
       <c r="G24">
-        <v>0.07996697930498987</v>
+        <v>0.08425873635585163</v>
       </c>
       <c r="H24">
-        <v>0.006442424399166338</v>
+        <v>0.004385429487075983</v>
       </c>
       <c r="I24">
-        <v>0.02664416534802875</v>
+        <v>0.1213325735962587</v>
       </c>
       <c r="J24">
-        <v>0.004549115013863163</v>
+        <v>0.01899431814576616</v>
       </c>
       <c r="K24">
-        <v>0.06112613808385833</v>
+        <v>0.01239247977478367</v>
       </c>
       <c r="L24">
-        <v>0.2318522673685398</v>
+        <v>0.005046647555617998</v>
       </c>
       <c r="M24">
-        <v>0.01781565783806007</v>
+        <v>0.3306250873431353</v>
       </c>
       <c r="N24">
-        <v>0.1031294252898848</v>
+        <v>0.01030788867636097</v>
       </c>
       <c r="O24">
-        <v>0.005509196378504522</v>
+        <v>0.02140055496860577</v>
       </c>
       <c r="P24">
-        <v>415000</v>
+        <v>0.02126913218119626</v>
       </c>
       <c r="Q24">
-        <v>342970000</v>
+        <v>400256142.612</v>
       </c>
       <c r="R24">
-        <v>1551711000</v>
+        <v>4949904.081</v>
       </c>
       <c r="S24">
-        <v>807015000</v>
+        <v>3715538051</v>
       </c>
       <c r="T24">
-        <v>65016000</v>
+        <v>1575499504.53</v>
       </c>
       <c r="U24">
-        <v>268889000</v>
+        <v>82000303.86</v>
       </c>
       <c r="V24">
-        <v>45909000</v>
+        <v>2268719160.194</v>
       </c>
       <c r="W24">
-        <v>616876000</v>
+        <v>355162445.128</v>
       </c>
       <c r="X24">
-        <v>2339819000</v>
+        <v>231718947.963</v>
       </c>
       <c r="Y24">
-        <v>179793000</v>
+        <v>94363992</v>
       </c>
       <c r="Z24">
-        <v>1040767000</v>
+        <v>6182144235.992</v>
       </c>
       <c r="AA24">
-        <v>55598000</v>
+        <v>192740530</v>
+      </c>
+      <c r="AB24">
+        <v>400155108.039</v>
+      </c>
+      <c r="AC24">
+        <v>397697718.51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D1:O1"/>
-    <mergeCell ref="P1:AA1"/>
+    <mergeCell ref="D1:P1"/>
+    <mergeCell ref="Q1:AC1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
